--- a/src/test/resources/TestData/DSAlgo.xlsx
+++ b/src/test/resources/TestData/DSAlgo.xlsx
@@ -1,48 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\MAvenProjects\NumpyNinja\SDET229-DSAlgo\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d13be87cc8d1bef0/Desktop/DSALgo_Project/SDET229duplicate/src/test/resources/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A6174-D563-4E88-B575-B9064CE69A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DE6D8621-7510-49B6-8952-5B8B93A4F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A449CBF2-8F94-40F5-9A46-5EF3FB5ABAAC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10296" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TreeLinksAndTitles" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="PythonCode" sheetId="4" r:id="rId3"/>
-    <sheet name="Sign-IN" sheetId="5" r:id="rId4"/>
-    <sheet name="Queue" sheetId="3" r:id="rId5"/>
-    <sheet name="Queue-SODD" sheetId="6" r:id="rId6"/>
+    <sheet name="Array_code" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
+    <sheet name="TreeLinksAndTitles" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="2" r:id="rId5"/>
+    <sheet name="Arrays_sheet" sheetId="3" r:id="rId6"/>
+    <sheet name="PythonCode" sheetId="4" r:id="rId7"/>
+    <sheet name="dd" sheetId="10" r:id="rId8"/>
+    <sheet name="Sign-IN" sheetId="5" r:id="rId9"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
   <si>
     <t>topicLinks</t>
   </si>
@@ -134,116 +126,147 @@
     <t xml:space="preserve">Shivagami229. </t>
   </si>
   <si>
-    <t>QueuePageLinks</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
     <t>Output</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementation of Queue in Python </t>
-  </si>
-  <si>
-    <t>Implementation using collections.deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation using array </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue Operations  </t>
-  </si>
-  <si>
     <t>print('Implementation of Queue in Python')</t>
   </si>
   <si>
-    <t>print('Implementation using collections.deque')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print('Implementation using array') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">print('Queue Operations')  </t>
-  </si>
-  <si>
     <t>Implementation of Queue in Python</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ghj</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>NameError: name 'n' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Verify login with empty username and password</t>
+  </si>
+  <si>
     <t>Please fill in this field.</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ghj</t>
-  </si>
-  <si>
-    <t>NameError: name 'n' is not defined on line 1</t>
-  </si>
-  <si>
-    <t>SyntaxError: bad input on line 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>Verify login with empty username and password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify login with empty username </t>
   </si>
   <si>
     <t>Verify login with empty password</t>
   </si>
   <si>
+    <t>Verify valid with single character username</t>
+  </si>
+  <si>
+    <t>Verify invalid Login Credentials with numeric password</t>
+  </si>
+  <si>
+    <t>Verify invalid Login Credentials with special character</t>
+  </si>
+  <si>
+    <t>subTopic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays in Python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays Using List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Operations in Lists </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications of Array </t>
+  </si>
+  <si>
+    <t>print('Arrays in Python')</t>
+  </si>
+  <si>
+    <t>print('Arrays Using List ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print('Basic Operations in Lists ') </t>
+  </si>
+  <si>
+    <t>print('Applications of Array ')</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>expected_output</t>
+  </si>
+  <si>
     <t>ScenarioName</t>
   </si>
   <si>
+    <t>Verify TryHere Link and code execution for invalid Queue code.</t>
+  </si>
+  <si>
     <t>abc</t>
   </si>
   <si>
     <t>NameError: name 'abc' is not defined on line 1</t>
   </si>
   <si>
-    <t xml:space="preserve">  sgh</t>
+    <t>Verify TryHere Link and code execution for valid Graph code.</t>
+  </si>
+  <si>
+    <t>Verify TryHere Link and code execution for invalid Graph code.</t>
+  </si>
+  <si>
+    <t>sgh</t>
   </si>
   <si>
     <t>NameError: name 'sgh' is not defined on line 1</t>
   </si>
   <si>
-    <t>Verify TryHere Link and code execution for valid Queue code.</t>
-  </si>
-  <si>
-    <t>Verify TryHere Link and code execution for invalid Queue code.</t>
-  </si>
-  <si>
-    <t>Verify TryHere Link and code execution for valid Graph code.</t>
-  </si>
-  <si>
-    <t>Verify TryHere Link and code execution for invalid Graph code.</t>
-  </si>
-  <si>
-    <t>Verify valid with single character username</t>
-  </si>
-  <si>
-    <t>Verify invalid Login Credentials with numeric password</t>
-  </si>
-  <si>
-    <t>Verify invalid Login Credentials with special character</t>
+    <t>Execute valid Python code in editor</t>
+  </si>
+  <si>
+    <t>Execute invalid Python code in editor</t>
+  </si>
+  <si>
+    <t>Run valid Python code in practice question editor</t>
+  </si>
+  <si>
+    <t>You are an adult.</t>
+  </si>
+  <si>
+    <t>age = 20
+if age &gt;= 18:
+    print('You are an adult.')
+else:
+    print('You are a minor.')</t>
+  </si>
+  <si>
+    <t>nmm</t>
+  </si>
+  <si>
+    <t>NameError: name 'nmm' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>Run invalid syntax in practice question editor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,22 +287,23 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,17 +323,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -317,24 +341,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +692,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD633EEB-DB38-4C91-BDC2-0FD2ED095C9C}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22D396-A6D6-4F31-949B-372918D87023}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51613B0D-2F60-458B-8D24-FF32A4BF6841}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A398E40A-2630-4780-9F53-131501168196}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -675,13 +987,13 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="48.8984375" customWidth="1"/>
+    <col min="2" max="2" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -697,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -713,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -721,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -729,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -737,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -753,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -769,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -777,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -790,131 +1102,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87098745-8CC1-4807-8F99-5F42923EBD4B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>123456789</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -922,200 +1201,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B7D7F-8D5B-432C-8FB2-9CA1478D7831}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C443D02-D105-47F9-A8C2-A97E8D189759}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994F7223-002C-4B7C-A4BF-752EF0AEADD1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0DC688-59C6-4263-A1AA-3DE7551473EB}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8">
-        <v>123456789</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,74 +1335,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C443D02-D105-47F9-A8C2-A97E8D189759}">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F29C459-45C9-4218-83FF-74B1E6CBB1D2}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1199,77 +1473,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93685184-302F-4EE1-BA1A-98BD96AEB600}">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BDA186-8663-4F1D-9F5B-09E7DD66CD82}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DSAlgo.xlsx
+++ b/src/test/resources/TestData/DSAlgo.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d13be87cc8d1bef0/Desktop/DSALgo_Project/SDET229duplicate/src/test/resources/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\MAvenProjects\NumpyNinja\SDET229-DSAlgo\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DE6D8621-7510-49B6-8952-5B8B93A4F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A449CBF2-8F94-40F5-9A46-5EF3FB5ABAAC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7D2B3-767C-4DD0-976C-AA533F291528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="19200" windowHeight="10296" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array_code" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
-    <sheet name="TreeLinksAndTitles" sheetId="1" r:id="rId4"/>
-    <sheet name="Login" sheetId="2" r:id="rId5"/>
-    <sheet name="Arrays_sheet" sheetId="3" r:id="rId6"/>
-    <sheet name="PythonCode" sheetId="4" r:id="rId7"/>
-    <sheet name="dd" sheetId="10" r:id="rId8"/>
-    <sheet name="Sign-IN" sheetId="5" r:id="rId9"/>
-    <sheet name="Arrays" sheetId="6" r:id="rId10"/>
+    <sheet name="TreeLinksAndTitles" sheetId="1" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId3"/>
+    <sheet name="Arrays_sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="PythonCode" sheetId="4" r:id="rId5"/>
+    <sheet name="Sign-IN" sheetId="5" r:id="rId6"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId7"/>
+    <sheet name="Queue-SODD" sheetId="12" r:id="rId8"/>
+    <sheet name="Queue" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
   <si>
     <t>topicLinks</t>
   </si>
@@ -261,12 +263,45 @@
   <si>
     <t>Run invalid syntax in practice question editor</t>
   </si>
+  <si>
+    <t>Verify TryHere Link and code execution for valid Queue code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sgh</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>QueuePageLinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of Queue in Python </t>
+  </si>
+  <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>print('Implementation using collections.deque')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation using array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print('Implementation using array') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue Operations  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print('Queue Operations')  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,14 +734,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" customWidth="1"/>
-    <col min="3" max="3" width="42.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.296875" customWidth="1"/>
+    <col min="2" max="2" width="35.8984375" customWidth="1"/>
+    <col min="3" max="3" width="42.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="14.4" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
@@ -740,7 +775,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="14.4" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -774,7 +809,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="28.2" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -808,7 +843,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="28.2" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
@@ -842,7 +877,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="28.2" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>63</v>
       </c>
@@ -881,105 +916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22D396-A6D6-4F31-949B-372918D87023}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38.453125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="39.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51613B0D-2F60-458B-8D24-FF32A4BF6841}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A398E40A-2630-4780-9F53-131501168196}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -987,13 +924,13 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="48.90625" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1102,17 +1039,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87098745-8CC1-4807-8F99-5F42923EBD4B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1154,7 +1094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1194,6 +1134,36 @@
       </c>
       <c r="D6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1201,22 +1171,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C443D02-D105-47F9-A8C2-A97E8D189759}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="54.08984375" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="1" max="1" width="54.09765625" customWidth="1"/>
+    <col min="2" max="2" width="38.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
@@ -1227,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -1238,7 +1208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -1249,7 +1219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="133.94999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1260,7 +1230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -1278,7 +1248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994F7223-002C-4B7C-A4BF-752EF0AEADD1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1286,13 +1256,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1324,7 +1294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1335,145 +1305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F29C459-45C9-4218-83FF-74B1E6CBB1D2}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6">
-        <v>123456789</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BDA186-8663-4F1D-9F5B-09E7DD66CD82}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1481,15 +1313,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1503,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1565,7 +1397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1593,7 +1425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1611,4 +1443,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22D396-A6D6-4F31-949B-372918D87023}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="39.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB82787-BA53-49CD-9E6A-4C1AB948ADA4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5A8FA-B3D8-4212-BE38-5DD47FC3F9FE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/DSAlgo.xlsx
+++ b/src/test/resources/TestData/DSAlgo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\MAvenProjects\NumpyNinja\SDET229-DSAlgo\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7D2B3-767C-4DD0-976C-AA533F291528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05A3CB-E092-467F-A4FF-4F89E843D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="19200" windowHeight="10296" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array_code" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="Arrays_sheet" sheetId="3" r:id="rId4"/>
     <sheet name="PythonCode" sheetId="4" r:id="rId5"/>
     <sheet name="Sign-IN" sheetId="5" r:id="rId6"/>
-    <sheet name="Arrays" sheetId="6" r:id="rId7"/>
-    <sheet name="Queue-SODD" sheetId="12" r:id="rId8"/>
-    <sheet name="Queue" sheetId="13" r:id="rId9"/>
+    <sheet name="Account" sheetId="15" r:id="rId7"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId8"/>
+    <sheet name="Queue-SODD" sheetId="12" r:id="rId9"/>
+    <sheet name="Graph-SODD" sheetId="14" r:id="rId10"/>
+    <sheet name="Queue" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>topicLinks</t>
   </si>
@@ -264,15 +266,9 @@
     <t>Run invalid syntax in practice question editor</t>
   </si>
   <si>
-    <t>Verify TryHere Link and code execution for valid Queue code.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  sgh</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
     <t>QueuePageLinks</t>
   </si>
   <si>
@@ -295,6 +291,24 @@
   </si>
   <si>
     <t xml:space="preserve">print('Queue Operations')  </t>
+  </si>
+  <si>
+    <t>Verify code execution for valid Queue code.</t>
+  </si>
+  <si>
+    <t>Verify code execution for invalid Queue code.</t>
+  </si>
+  <si>
+    <t>print('Implementation of Graph in Python')</t>
+  </si>
+  <si>
+    <t>Implementation of Graph in Python</t>
+  </si>
+  <si>
+    <t>Verify code execution for valid Graph code.</t>
+  </si>
+  <si>
+    <t>Verify code execution for invalid Graph code.</t>
   </si>
 </sst>
 </file>
@@ -916,6 +930,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56235498-6F05-4877-9E68-7A4C34E000D5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="52.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5A8FA-B3D8-4212-BE38-5DD47FC3F9FE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
@@ -1043,9 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87098745-8CC1-4807-8F99-5F42923EBD4B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -1067,103 +1205,107 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>123456789</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1318,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1310,7 +1452,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1446,6 +1588,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA30D5-7E4D-432F-B689-802F9145BC49}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22D396-A6D6-4F31-949B-372918D87023}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1519,15 +1695,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB82787-BA53-49CD-9E6A-4C1AB948ADA4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="52.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1542,7 +1721,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1553,108 +1732,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5A8FA-B3D8-4212-BE38-5DD47FC3F9FE}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
